--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1916.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1916.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38269305-E7E9-4C55-8C12-83E155DBA5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60058A-8924-45FE-AE0B-95A4BD6C4C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89910" yWindow="240" windowWidth="24855" windowHeight="22575" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
-    <t>стр. 50-80</t>
-  </si>
-  <si>
     <t>губ</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>51 губерния Европейской России</t>
+  </si>
+  <si>
+    <t>стр. I/25-47</t>
   </si>
 </sst>
 </file>
@@ -797,25 +797,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -827,8 +825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -846,59 +845,59 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>214.3</v>
@@ -956,7 +955,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>656.3</v>
@@ -1014,7 +1013,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1162.5999999999999</v>
@@ -1072,7 +1071,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>893.6</v>
@@ -1128,7 +1127,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>822.2</v>
@@ -1184,7 +1183,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>924.8</v>
@@ -1242,7 +1241,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>819.3</v>
@@ -1300,7 +1299,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1940.3</v>
@@ -1358,7 +1357,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1759.8</v>
@@ -1416,7 +1415,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1900.8</v>
@@ -1474,7 +1473,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>864.6</v>
@@ -1532,7 +1531,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1830.7</v>
@@ -1590,7 +1589,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>1545.3</v>
@@ -1648,7 +1647,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>1315.7</v>
@@ -1706,7 +1705,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>625.1</v>
@@ -1764,7 +1763,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>2020.3</v>
@@ -1822,7 +1821,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>815</v>
@@ -1880,7 +1879,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>801</v>
@@ -1938,7 +1937,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>283.3</v>
@@ -1996,7 +1995,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>1489</v>
@@ -2054,7 +2053,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>523.1</v>
@@ -2112,7 +2111,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>1392.7</v>
@@ -2170,7 +2169,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>1124.3</v>
@@ -2228,7 +2227,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2">
         <v>809.1</v>
@@ -2286,7 +2285,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>916.5</v>
@@ -2344,7 +2343,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>800.9</v>
@@ -2402,7 +2401,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>213.6</v>
@@ -2460,7 +2459,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>1007.2</v>
@@ -2518,7 +2517,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>1242.5</v>
@@ -2576,7 +2575,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>854.1</v>
@@ -2634,7 +2633,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>1875.6</v>
@@ -2692,7 +2691,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>1907.9</v>
@@ -2750,7 +2749,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2">
         <v>1742.1</v>
@@ -2808,7 +2807,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>661.2</v>
@@ -2866,7 +2865,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>1269</v>
@@ -2924,7 +2923,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>1842.8</v>
@@ -2982,7 +2981,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2">
         <v>397.8</v>
@@ -3040,7 +3039,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>1421.8</v>
@@ -3098,7 +3097,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>951.2</v>
@@ -3156,7 +3155,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>971.7</v>
@@ -3214,7 +3213,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>838.9</v>
@@ -3272,7 +3271,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>1606.2</v>
@@ -3330,7 +3329,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>1042.4000000000001</v>
@@ -3388,7 +3387,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>868.7</v>
@@ -3446,7 +3445,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>1485.1</v>
@@ -3504,7 +3503,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>1476.8</v>
@@ -3562,7 +3561,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2">
         <v>1358</v>
@@ -3620,7 +3619,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="2">
         <v>474.4</v>
@@ -3678,7 +3677,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>1395.3</v>
@@ -3736,7 +3735,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>197.6</v>
@@ -3794,7 +3793,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>552.9</v>
@@ -3852,7 +3851,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2">
         <v>55905.4</v>
@@ -3910,7 +3909,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3950,7 +3949,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3990,7 +3989,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4030,7 +4029,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4070,7 +4069,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4110,7 +4109,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4150,7 +4149,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4190,7 +4189,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4230,7 +4229,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4270,7 +4269,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4310,7 +4309,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4350,7 +4349,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>5915.1</v>
@@ -4408,7 +4407,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>445.9</v>
@@ -4466,7 +4465,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2">
         <v>66.599999999999994</v>
@@ -4524,7 +4523,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
         <v>330.2</v>
@@ -4582,7 +4581,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
         <v>535.6</v>
@@ -4640,7 +4639,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2">
         <v>51.1</v>
@@ -4698,7 +4697,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>191</v>
@@ -4756,7 +4755,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6">
         <v>1447.6</v>
@@ -4814,7 +4813,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>507.9</v>
@@ -4872,7 +4871,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>643</v>
@@ -4930,7 +4929,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2">
         <v>63.7</v>
@@ -4988,7 +4987,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>563.4</v>
@@ -5046,7 +5045,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>519.9</v>
@@ -5104,7 +5103,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>56.4</v>
@@ -5162,7 +5161,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>492.8</v>
@@ -5220,7 +5219,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>4717.8999999999996</v>
@@ -5278,7 +5277,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>104.2</v>
@@ -5336,7 +5335,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>520.1</v>
@@ -5394,7 +5393,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>432.1</v>
@@ -5452,7 +5451,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>352.4</v>
@@ -5510,7 +5509,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2">
         <v>20.2</v>
@@ -5568,7 +5567,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
         <v>244.1</v>
@@ -5626,7 +5625,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>21.6</v>
@@ -5684,7 +5683,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
         <v>978.3</v>
@@ -5742,7 +5741,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
         <v>1882.1</v>
@@ -5800,7 +5799,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <v>162.80000000000001</v>
@@ -5858,7 +5857,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
         <v>5362.2</v>
@@ -5914,7 +5913,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <v>703.6</v>
@@ -5972,7 +5971,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
         <v>244.5</v>
@@ -6030,7 +6029,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
         <v>543.79999999999995</v>
@@ -6088,7 +6087,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
         <v>483.9</v>
@@ -6146,7 +6145,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
         <v>677.4</v>
@@ -6204,7 +6203,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
         <v>938.5</v>
@@ -6262,7 +6261,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
         <v>411.8</v>
@@ -6320,7 +6319,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
         <v>422</v>
@@ -6378,7 +6377,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2">
         <v>936.7</v>
@@ -6436,7 +6435,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
         <v>1424.7</v>
@@ -6494,7 +6493,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2">
         <v>222.4</v>
@@ -6506,7 +6505,7 @@
         <v>443.5</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" ref="E68:E110" si="18">B102+C102-D102</f>
+        <f t="shared" ref="E102:E110" si="18">B102+C102-D102</f>
         <v>0</v>
       </c>
       <c r="F102" s="2"/>
@@ -6552,7 +6551,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2">
         <v>260.2</v>
@@ -6610,7 +6609,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2">
         <v>249.7</v>
@@ -6668,7 +6667,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2">
         <v>170.9</v>
@@ -6726,7 +6725,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2">
         <v>113.9</v>
@@ -6784,7 +6783,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2">
         <v>95.3</v>
@@ -6842,7 +6841,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2">
         <v>150.80000000000001</v>
@@ -6900,7 +6899,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2">
         <v>161.5</v>
@@ -6958,7 +6957,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2">
         <v>73325.3</v>
